--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf13c.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4101656666666667</v>
+        <v>0.1273763333333333</v>
       </c>
       <c r="H2">
-        <v>1.230497</v>
+        <v>0.382129</v>
       </c>
       <c r="I2">
-        <v>0.07383296380759892</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="J2">
-        <v>0.07383296380759893</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09696133333333334</v>
+        <v>0.09696133333333333</v>
       </c>
       <c r="N2">
         <v>0.290884</v>
       </c>
       <c r="O2">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="P2">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="Q2">
-        <v>0.03977020992755556</v>
+        <v>0.01235057911511111</v>
       </c>
       <c r="R2">
-        <v>0.357931889348</v>
+        <v>0.111155212036</v>
       </c>
       <c r="S2">
-        <v>0.01984574569687486</v>
+        <v>0.00443004530217822</v>
       </c>
       <c r="T2">
-        <v>0.01984574569687486</v>
+        <v>0.004430045302178219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4101656666666667</v>
+        <v>0.1273763333333333</v>
       </c>
       <c r="H3">
-        <v>1.230497</v>
+        <v>0.382129</v>
       </c>
       <c r="I3">
-        <v>0.07383296380759892</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="J3">
-        <v>0.07383296380759893</v>
+        <v>0.02221572899588398</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2637679999999999</v>
+        <v>0.389279</v>
       </c>
       <c r="N3">
-        <v>0.7913039999999999</v>
+        <v>1.167837</v>
       </c>
       <c r="O3">
-        <v>0.7312075166237288</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="P3">
-        <v>0.731207516623729</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="Q3">
-        <v>0.1081885775653333</v>
+        <v>0.04958493166366667</v>
       </c>
       <c r="R3">
-        <v>0.9736971980879998</v>
+        <v>0.446264384973</v>
       </c>
       <c r="S3">
-        <v>0.05398721811072406</v>
+        <v>0.01778568369370576</v>
       </c>
       <c r="T3">
-        <v>0.05398721811072408</v>
+        <v>0.01778568369370576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>12.359947</v>
       </c>
       <c r="I4">
-        <v>0.7416283985372096</v>
+        <v>0.7185668529619296</v>
       </c>
       <c r="J4">
-        <v>0.7416283985372097</v>
+        <v>0.7185668529619297</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09696133333333334</v>
+        <v>0.09696133333333333</v>
       </c>
       <c r="N4">
         <v>0.290884</v>
       </c>
       <c r="O4">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="P4">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="Q4">
-        <v>0.3994789803497779</v>
+        <v>0.3994789803497778</v>
       </c>
       <c r="R4">
         <v>3.595310823148</v>
       </c>
       <c r="S4">
-        <v>0.1993441389851835</v>
+        <v>0.1432896355485236</v>
       </c>
       <c r="T4">
-        <v>0.1993441389851835</v>
+        <v>0.1432896355485236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>12.359947</v>
       </c>
       <c r="I5">
-        <v>0.7416283985372096</v>
+        <v>0.7185668529619296</v>
       </c>
       <c r="J5">
-        <v>0.7416283985372097</v>
+        <v>0.7185668529619297</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2637679999999999</v>
+        <v>0.389279</v>
       </c>
       <c r="N5">
-        <v>0.7913039999999999</v>
+        <v>1.167837</v>
       </c>
       <c r="O5">
-        <v>0.7312075166237288</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="P5">
-        <v>0.731207516623729</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="Q5">
-        <v>1.086719500098666</v>
+        <v>1.603822602737667</v>
       </c>
       <c r="R5">
-        <v>9.780475500887999</v>
+        <v>14.434403424639</v>
       </c>
       <c r="S5">
-        <v>0.5422842595520261</v>
+        <v>0.575277217413406</v>
       </c>
       <c r="T5">
-        <v>0.5422842595520263</v>
+        <v>0.575277217413406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3170996666666667</v>
+        <v>0.2286643333333333</v>
       </c>
       <c r="H6">
-        <v>0.951299</v>
+        <v>0.685993</v>
       </c>
       <c r="I6">
-        <v>0.05708037048217512</v>
+        <v>0.03988138712600571</v>
       </c>
       <c r="J6">
-        <v>0.05708037048217514</v>
+        <v>0.03988138712600571</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09696133333333334</v>
+        <v>0.09696133333333333</v>
       </c>
       <c r="N6">
         <v>0.290884</v>
       </c>
       <c r="O6">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="P6">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="Q6">
-        <v>0.03074640647955556</v>
+        <v>0.02217159864577778</v>
       </c>
       <c r="R6">
-        <v>0.276717658316</v>
+        <v>0.199544387812</v>
       </c>
       <c r="S6">
-        <v>0.01534277453394145</v>
+        <v>0.007952759583745654</v>
       </c>
       <c r="T6">
-        <v>0.01534277453394146</v>
+        <v>0.007952759583745654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3170996666666667</v>
+        <v>0.2286643333333333</v>
       </c>
       <c r="H7">
-        <v>0.951299</v>
+        <v>0.685993</v>
       </c>
       <c r="I7">
-        <v>0.05708037048217512</v>
+        <v>0.03988138712600571</v>
       </c>
       <c r="J7">
-        <v>0.05708037048217514</v>
+        <v>0.03988138712600571</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2637679999999999</v>
+        <v>0.389279</v>
       </c>
       <c r="N7">
-        <v>0.7913039999999999</v>
+        <v>1.167837</v>
       </c>
       <c r="O7">
-        <v>0.7312075166237288</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="P7">
-        <v>0.731207516623729</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="Q7">
-        <v>0.08364074487733332</v>
+        <v>0.08901422301566667</v>
       </c>
       <c r="R7">
-        <v>0.7527667038959999</v>
+        <v>0.801128007141</v>
       </c>
       <c r="S7">
-        <v>0.04173759594823367</v>
+        <v>0.03192862754226006</v>
       </c>
       <c r="T7">
-        <v>0.04173759594823369</v>
+        <v>0.03192862754226006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7080713333333334</v>
+        <v>1.257587333333333</v>
       </c>
       <c r="H8">
-        <v>2.124214</v>
+        <v>3.772762</v>
       </c>
       <c r="I8">
-        <v>0.1274582671730162</v>
+        <v>0.2193360309161807</v>
       </c>
       <c r="J8">
-        <v>0.1274582671730163</v>
+        <v>0.2193360309161807</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09696133333333334</v>
+        <v>0.09696133333333333</v>
       </c>
       <c r="N8">
         <v>0.290884</v>
       </c>
       <c r="O8">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="P8">
-        <v>0.2687924833762711</v>
+        <v>0.1994103053291205</v>
       </c>
       <c r="Q8">
-        <v>0.06865554057511113</v>
+        <v>0.1219373446231111</v>
       </c>
       <c r="R8">
-        <v>0.6178998651760002</v>
+        <v>1.097436101608</v>
       </c>
       <c r="S8">
-        <v>0.03425982416027128</v>
+        <v>0.04373786489467302</v>
       </c>
       <c r="T8">
-        <v>0.03425982416027129</v>
+        <v>0.04373786489467301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7080713333333334</v>
+        <v>1.257587333333333</v>
       </c>
       <c r="H9">
-        <v>2.124214</v>
+        <v>3.772762</v>
       </c>
       <c r="I9">
-        <v>0.1274582671730162</v>
+        <v>0.2193360309161807</v>
       </c>
       <c r="J9">
-        <v>0.1274582671730163</v>
+        <v>0.2193360309161807</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2637679999999999</v>
+        <v>0.389279</v>
       </c>
       <c r="N9">
-        <v>0.7913039999999999</v>
+        <v>1.167837</v>
       </c>
       <c r="O9">
-        <v>0.7312075166237288</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="P9">
-        <v>0.731207516623729</v>
+        <v>0.8005896946708795</v>
       </c>
       <c r="Q9">
-        <v>0.1867665594506666</v>
+        <v>0.4895523395326667</v>
       </c>
       <c r="R9">
-        <v>1.680899035056</v>
+        <v>4.405971055794001</v>
       </c>
       <c r="S9">
-        <v>0.09319844301274494</v>
+        <v>0.1755981660215077</v>
       </c>
       <c r="T9">
-        <v>0.09319844301274496</v>
+        <v>0.1755981660215077</v>
       </c>
     </row>
   </sheetData>
